--- a/Code/Results/Cases/Case_0_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_186/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1702693261602377</v>
+        <v>0.04851133617081871</v>
       </c>
       <c r="D2">
-        <v>0.4356968277317605</v>
+        <v>0.1721232221067623</v>
       </c>
       <c r="E2">
-        <v>0.7779808991206494</v>
+        <v>0.2585910595507244</v>
       </c>
       <c r="F2">
-        <v>1.38902477196487</v>
+        <v>1.566472636612914</v>
       </c>
       <c r="G2">
-        <v>2.143749994185754</v>
+        <v>1.283304412812583</v>
       </c>
       <c r="H2">
-        <v>0.9297314382263551</v>
+        <v>1.165733780664482</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1.380232622351315</v>
+        <v>0.4030933344628522</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>35.30260240970875</v>
+        <v>11.03267308633696</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1425712127097114</v>
+        <v>0.04303509047016973</v>
       </c>
       <c r="D3">
-        <v>0.3759151924030988</v>
+        <v>0.1559118863778508</v>
       </c>
       <c r="E3">
-        <v>0.6518215900366471</v>
+        <v>0.2326807926679066</v>
       </c>
       <c r="F3">
-        <v>1.007968595452297</v>
+        <v>1.629441323364802</v>
       </c>
       <c r="G3">
-        <v>1.620993720666206</v>
+        <v>1.306603723938878</v>
       </c>
       <c r="H3">
-        <v>0.7208326012228383</v>
+        <v>1.196388683199899</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1.132525235005346</v>
+        <v>0.3609169052584775</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.68573394292758</v>
+        <v>9.728459456845826</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1267294458459816</v>
+        <v>0.0397026064644308</v>
       </c>
       <c r="D4">
-        <v>0.3405198165411605</v>
+        <v>0.1459268339486357</v>
       </c>
       <c r="E4">
-        <v>0.5809987644499799</v>
+        <v>0.2168485604219512</v>
       </c>
       <c r="F4">
-        <v>0.8318701380302826</v>
+        <v>1.672153050430197</v>
       </c>
       <c r="G4">
-        <v>1.361734031334663</v>
+        <v>1.324581164255704</v>
       </c>
       <c r="H4">
-        <v>0.6216093086759145</v>
+        <v>1.217492531298589</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.9973504263892039</v>
+        <v>0.3352721812424022</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.48368240716849</v>
+        <v>8.925665515002549</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1204912963009548</v>
+        <v>0.03835168176055959</v>
       </c>
       <c r="D5">
-        <v>0.3263347275917994</v>
+        <v>0.1418497945449531</v>
       </c>
       <c r="E5">
-        <v>0.5533214088855516</v>
+        <v>0.2104146866927152</v>
       </c>
       <c r="F5">
-        <v>0.7708559168736571</v>
+        <v>1.690554156265343</v>
       </c>
       <c r="G5">
-        <v>1.267530088076967</v>
+        <v>1.332806048665617</v>
       </c>
       <c r="H5">
-        <v>0.5866024578621989</v>
+        <v>1.226655141088372</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.9452808492673341</v>
+        <v>0.3248808200953022</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.22280414743466</v>
+        <v>8.597962056204153</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1194668537615939</v>
+        <v>0.03812777728740002</v>
       </c>
       <c r="D6">
-        <v>0.323991621862092</v>
+        <v>0.1411723140413557</v>
       </c>
       <c r="E6">
-        <v>0.5487862762891993</v>
+        <v>0.2093473886255524</v>
       </c>
       <c r="F6">
-        <v>0.7612885098030659</v>
+        <v>1.693669140916548</v>
       </c>
       <c r="G6">
-        <v>1.252487482455592</v>
+        <v>1.334225376550705</v>
       </c>
       <c r="H6">
-        <v>0.58107529958707</v>
+        <v>1.228210245793946</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.9367893862923893</v>
+        <v>0.3231587924318831</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.01568724611553</v>
+        <v>8.543511915694978</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1266445165933874</v>
+        <v>0.03968435929022007</v>
       </c>
       <c r="D7">
-        <v>0.3403276428644233</v>
+        <v>0.1458718823950989</v>
       </c>
       <c r="E7">
-        <v>0.5806212135307547</v>
+        <v>0.216761720287991</v>
       </c>
       <c r="F7">
-        <v>0.8310077582229525</v>
+        <v>1.672397211671139</v>
       </c>
       <c r="G7">
-        <v>1.360421505921522</v>
+        <v>1.324688479918507</v>
       </c>
       <c r="H7">
-        <v>0.6211171927807868</v>
+        <v>1.21761383793104</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.9966372793650464</v>
+        <v>0.335131805904183</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.46651869141516</v>
+        <v>8.921248321412122</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1604221124422764</v>
+        <v>0.04661663758474788</v>
       </c>
       <c r="D8">
-        <v>0.4147460586781335</v>
+        <v>0.166539899943416</v>
       </c>
       <c r="E8">
-        <v>0.7327387282639393</v>
+        <v>0.249640360704646</v>
       </c>
       <c r="F8">
-        <v>1.242785168540721</v>
+        <v>1.587330345972347</v>
       </c>
       <c r="G8">
-        <v>1.947662659874879</v>
+        <v>1.290561187468825</v>
       </c>
       <c r="H8">
-        <v>0.8502790004378937</v>
+        <v>1.175823287887681</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1.29038042169978</v>
+        <v>0.3884959844843081</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>33.3012538561598</v>
+        <v>10.58336038017137</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2421523002248023</v>
+        <v>0.06046976379906255</v>
       </c>
       <c r="D9">
-        <v>0.5784926521747025</v>
+        <v>0.2068347990554287</v>
       </c>
       <c r="E9">
-        <v>1.127714113974619</v>
+        <v>0.3147988307733982</v>
       </c>
       <c r="F9">
-        <v>2.848451182470868</v>
+        <v>1.453664025653268</v>
       </c>
       <c r="G9">
-        <v>3.948686760820266</v>
+        <v>1.253889171928535</v>
       </c>
       <c r="H9">
-        <v>1.695878446157877</v>
+        <v>1.112485703623321</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2.113641931536307</v>
+        <v>0.4953531201156807</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>50.25632792992991</v>
+        <v>13.82979841242292</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3559239263453975</v>
+        <v>0.07083702209192211</v>
       </c>
       <c r="D10">
-        <v>0.761995650365435</v>
+        <v>0.2363194942805933</v>
       </c>
       <c r="E10">
-        <v>1.862222098066198</v>
+        <v>0.3632062189319925</v>
       </c>
       <c r="F10">
-        <v>7.340951275114762</v>
+        <v>1.37711790708299</v>
       </c>
       <c r="G10">
-        <v>8.882602333108395</v>
+        <v>1.246977042139093</v>
       </c>
       <c r="H10">
-        <v>3.917247324621286</v>
+        <v>1.078020812397256</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>3.868669286941326</v>
+        <v>0.5755349561040646</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>78.04071613804086</v>
+        <v>16.21175574969953</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3559239263453975</v>
+        <v>0.07560173214649524</v>
       </c>
       <c r="D11">
-        <v>0.761995650365435</v>
+        <v>0.2497128687702457</v>
       </c>
       <c r="E11">
-        <v>1.862222098066198</v>
+        <v>0.3853737728053943</v>
       </c>
       <c r="F11">
-        <v>7.340951275114762</v>
+        <v>1.347325671664478</v>
       </c>
       <c r="G11">
-        <v>8.882602333108395</v>
+        <v>1.248541243293261</v>
       </c>
       <c r="H11">
-        <v>3.917247324621286</v>
+        <v>1.065125630745854</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>3.868669286941326</v>
+        <v>0.6124544521571806</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>78.04071613804086</v>
+        <v>17.29584229795364</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3559239263453975</v>
+        <v>0.07741359766639277</v>
       </c>
       <c r="D12">
-        <v>0.761995650365435</v>
+        <v>0.2547823039495256</v>
       </c>
       <c r="E12">
-        <v>1.862222098066198</v>
+        <v>0.3937917456983229</v>
       </c>
       <c r="F12">
-        <v>7.340951275114762</v>
+        <v>1.336795643063525</v>
       </c>
       <c r="G12">
-        <v>8.882602333108395</v>
+        <v>1.249841577108924</v>
       </c>
       <c r="H12">
-        <v>3.917247324621286</v>
+        <v>1.060656844011703</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>3.868669286941326</v>
+        <v>0.6265057809404482</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>78.04071613804086</v>
+        <v>17.70653411182411</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3559239263453975</v>
+        <v>0.07702303357626761</v>
       </c>
       <c r="D13">
-        <v>0.761995650365435</v>
+        <v>0.2536906071664475</v>
       </c>
       <c r="E13">
-        <v>1.862222098066198</v>
+        <v>0.3919776929764112</v>
       </c>
       <c r="F13">
-        <v>7.340951275114762</v>
+        <v>1.339029578257112</v>
       </c>
       <c r="G13">
-        <v>8.882602333108395</v>
+        <v>1.249529533231652</v>
       </c>
       <c r="H13">
-        <v>3.917247324621286</v>
+        <v>1.061600618520743</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>3.868669286941326</v>
+        <v>0.6234763168105815</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>78.04071613804086</v>
+        <v>17.61807501515085</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3559239263453975</v>
+        <v>0.0757506401824628</v>
       </c>
       <c r="D14">
-        <v>0.761995650365435</v>
+        <v>0.2501299785605227</v>
       </c>
       <c r="E14">
-        <v>1.862222098066198</v>
+        <v>0.3860658364558844</v>
       </c>
       <c r="F14">
-        <v>7.340951275114762</v>
+        <v>1.346444128793522</v>
       </c>
       <c r="G14">
-        <v>8.882602333108395</v>
+        <v>1.248633851767181</v>
       </c>
       <c r="H14">
-        <v>3.917247324621286</v>
+        <v>1.064749594154165</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>3.868669286941326</v>
+        <v>0.6136090053196597</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>78.04071613804086</v>
+        <v>17.32962613495027</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3559239263453975</v>
+        <v>0.07497226658675515</v>
       </c>
       <c r="D15">
-        <v>0.761995650365435</v>
+        <v>0.2479486991958311</v>
       </c>
       <c r="E15">
-        <v>1.862222098066198</v>
+        <v>0.3824478048408508</v>
       </c>
       <c r="F15">
-        <v>7.340951275114762</v>
+        <v>1.351084505320728</v>
       </c>
       <c r="G15">
-        <v>8.882602333108395</v>
+        <v>1.248178361914029</v>
       </c>
       <c r="H15">
-        <v>3.917247324621286</v>
+        <v>1.066732820430929</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>3.868669286941326</v>
+        <v>0.6075744124210587</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>78.04071613804086</v>
+        <v>17.15296824538353</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3559239263453975</v>
+        <v>0.07052666435421884</v>
       </c>
       <c r="D16">
-        <v>0.761995650365435</v>
+        <v>0.2354438525911178</v>
       </c>
       <c r="E16">
-        <v>1.862222098066198</v>
+        <v>0.3617606792694517</v>
       </c>
       <c r="F16">
-        <v>7.340951275114762</v>
+        <v>1.379168505868222</v>
       </c>
       <c r="G16">
-        <v>8.882602333108395</v>
+        <v>1.246972182696368</v>
       </c>
       <c r="H16">
-        <v>3.917247324621286</v>
+        <v>1.078920741722357</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>3.868669286941326</v>
+        <v>0.5731316935072357</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>78.04071613804086</v>
+        <v>16.14092673091295</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3559239263453975</v>
+        <v>0.06781228552564755</v>
       </c>
       <c r="D17">
-        <v>0.761995650365435</v>
+        <v>0.2277678725134251</v>
       </c>
       <c r="E17">
-        <v>1.862222098066198</v>
+        <v>0.3491091020129033</v>
       </c>
       <c r="F17">
-        <v>7.340951275114762</v>
+        <v>1.397705100927595</v>
       </c>
       <c r="G17">
-        <v>8.882602333108395</v>
+        <v>1.247459840801469</v>
       </c>
       <c r="H17">
-        <v>3.917247324621286</v>
+        <v>1.087120340669173</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.868669286941326</v>
+        <v>0.5521207097835372</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>78.04071613804086</v>
+        <v>15.5202720179671</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3559239263453975</v>
+        <v>0.06625558374896912</v>
       </c>
       <c r="D18">
-        <v>0.761995650365435</v>
+        <v>0.2233510001934462</v>
       </c>
       <c r="E18">
-        <v>1.862222098066198</v>
+        <v>0.3418459041340185</v>
       </c>
       <c r="F18">
-        <v>7.340951275114762</v>
+        <v>1.408838444556579</v>
       </c>
       <c r="G18">
-        <v>8.882602333108395</v>
+        <v>1.248181603445772</v>
       </c>
       <c r="H18">
-        <v>3.917247324621286</v>
+        <v>1.09209761243639</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.868669286941326</v>
+        <v>0.5400771368043991</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>78.04071613804086</v>
+        <v>15.16333071957922</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3559239263453975</v>
+        <v>0.06572927311189858</v>
       </c>
       <c r="D19">
-        <v>0.761995650365435</v>
+        <v>0.2218551925134875</v>
       </c>
       <c r="E19">
-        <v>1.862222098066198</v>
+        <v>0.3393889828034276</v>
       </c>
       <c r="F19">
-        <v>7.340951275114762</v>
+        <v>1.412688148094205</v>
       </c>
       <c r="G19">
-        <v>8.882602333108395</v>
+        <v>1.248500846034034</v>
       </c>
       <c r="H19">
-        <v>3.917247324621286</v>
+        <v>1.093827249583171</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.868669286941326</v>
+        <v>0.5360062989711309</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>78.04071613804086</v>
+        <v>15.04248107993811</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3559239263453975</v>
+        <v>0.06810076204962456</v>
       </c>
       <c r="D20">
-        <v>0.761995650365435</v>
+        <v>0.228585182303334</v>
       </c>
       <c r="E20">
-        <v>1.862222098066198</v>
+        <v>0.3504544534059875</v>
       </c>
       <c r="F20">
-        <v>7.340951275114762</v>
+        <v>1.395682838666929</v>
       </c>
       <c r="G20">
-        <v>8.882602333108395</v>
+        <v>1.24736203827905</v>
       </c>
       <c r="H20">
-        <v>3.917247324621286</v>
+        <v>1.086220357933627</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.868669286941326</v>
+        <v>0.5543530334618367</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>78.04071613804086</v>
+        <v>15.58633665968165</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3559239263453975</v>
+        <v>0.07612416263155808</v>
       </c>
       <c r="D21">
-        <v>0.761995650365435</v>
+        <v>0.2511758813990639</v>
       </c>
       <c r="E21">
-        <v>1.862222098066198</v>
+        <v>0.3878016305683616</v>
       </c>
       <c r="F21">
-        <v>7.340951275114762</v>
+        <v>1.34424566367467</v>
       </c>
       <c r="G21">
-        <v>8.882602333108395</v>
+        <v>1.248877467763094</v>
       </c>
       <c r="H21">
-        <v>3.917247324621286</v>
+        <v>1.063813303293131</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>3.868669286941326</v>
+        <v>0.6165052978428207</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>78.04071613804086</v>
+        <v>17.41434509058314</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3559239263453975</v>
+        <v>0.0814123523916237</v>
       </c>
       <c r="D22">
-        <v>0.761995650365435</v>
+        <v>0.2659267790059232</v>
       </c>
       <c r="E22">
-        <v>1.862222098066198</v>
+        <v>0.4123490465951392</v>
       </c>
       <c r="F22">
-        <v>7.340951275114762</v>
+        <v>1.315023674077338</v>
       </c>
       <c r="G22">
-        <v>8.882602333108395</v>
+        <v>1.254009895899969</v>
       </c>
       <c r="H22">
-        <v>3.917247324621286</v>
+        <v>1.051591033250702</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>3.868669286941326</v>
+        <v>0.6575411144887937</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>78.04071613804086</v>
+        <v>18.61010622952659</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3559239263453975</v>
+        <v>0.07858567979705811</v>
       </c>
       <c r="D23">
-        <v>0.761995650365435</v>
+        <v>0.2580550184335948</v>
       </c>
       <c r="E23">
-        <v>1.862222098066198</v>
+        <v>0.3992340420890912</v>
       </c>
       <c r="F23">
-        <v>7.340951275114762</v>
+        <v>1.330208140040057</v>
       </c>
       <c r="G23">
-        <v>8.882602333108395</v>
+        <v>1.250881099628941</v>
       </c>
       <c r="H23">
-        <v>3.917247324621286</v>
+        <v>1.057887859734791</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>3.868669286941326</v>
+        <v>0.6355991044486018</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>78.04071613804086</v>
+        <v>17.97177566256789</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3559239263453975</v>
+        <v>0.06797032992503205</v>
       </c>
       <c r="D24">
-        <v>0.761995650365435</v>
+        <v>0.2282156885683548</v>
       </c>
       <c r="E24">
-        <v>1.862222098066198</v>
+        <v>0.3498461879505186</v>
       </c>
       <c r="F24">
-        <v>7.340951275114762</v>
+        <v>1.396595621672191</v>
       </c>
       <c r="G24">
-        <v>8.882602333108395</v>
+        <v>1.247404882257854</v>
       </c>
       <c r="H24">
-        <v>3.917247324621286</v>
+        <v>1.086626421341606</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.868669286941326</v>
+        <v>0.5533436885490062</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>78.04071613804086</v>
+        <v>15.55646921189793</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3559239263453975</v>
+        <v>0.05669122655658043</v>
       </c>
       <c r="D25">
-        <v>0.761995650365435</v>
+        <v>0.1959568747581102</v>
       </c>
       <c r="E25">
-        <v>1.862222098066198</v>
+        <v>0.2970869520061115</v>
       </c>
       <c r="F25">
-        <v>7.340951275114762</v>
+        <v>1.486128561463389</v>
       </c>
       <c r="G25">
-        <v>8.882602333108395</v>
+        <v>1.260410334037488</v>
       </c>
       <c r="H25">
-        <v>3.917247324621286</v>
+        <v>1.127554328933343</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.868669286941326</v>
+        <v>0.4661766211201552</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>78.04071613804086</v>
+        <v>12.95247859135213</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_186/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_186/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04851133617081871</v>
+        <v>0.1702693261602946</v>
       </c>
       <c r="D2">
-        <v>0.1721232221067623</v>
+        <v>0.4356968277318174</v>
       </c>
       <c r="E2">
-        <v>0.2585910595507244</v>
+        <v>0.7779808991206494</v>
       </c>
       <c r="F2">
-        <v>1.566472636612914</v>
+        <v>1.389024771964884</v>
       </c>
       <c r="G2">
-        <v>1.283304412812583</v>
+        <v>2.143749994185782</v>
       </c>
       <c r="H2">
-        <v>1.165733780664482</v>
+        <v>0.9297314382263551</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.4030933344628522</v>
+        <v>1.380232622351315</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>11.03267308633696</v>
+        <v>35.3026024097087</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04303509047016973</v>
+        <v>0.1425712127094982</v>
       </c>
       <c r="D3">
-        <v>0.1559118863778508</v>
+        <v>0.3759151924033262</v>
       </c>
       <c r="E3">
-        <v>0.2326807926679066</v>
+        <v>0.6518215900366897</v>
       </c>
       <c r="F3">
-        <v>1.629441323364802</v>
+        <v>1.007968595452311</v>
       </c>
       <c r="G3">
-        <v>1.306603723938878</v>
+        <v>1.620993720666263</v>
       </c>
       <c r="H3">
-        <v>1.196388683199899</v>
+        <v>0.7208326012228383</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3609169052584775</v>
+        <v>1.132525235005346</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.728459456845826</v>
+        <v>29.68573394292764</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0397026064644308</v>
+        <v>0.1267294458458821</v>
       </c>
       <c r="D4">
-        <v>0.1459268339486357</v>
+        <v>0.3405198165411747</v>
       </c>
       <c r="E4">
-        <v>0.2168485604219512</v>
+        <v>0.5809987644499941</v>
       </c>
       <c r="F4">
-        <v>1.672153050430197</v>
+        <v>0.8318701380302826</v>
       </c>
       <c r="G4">
-        <v>1.324581164255704</v>
+        <v>1.361734031334635</v>
       </c>
       <c r="H4">
-        <v>1.217492531298589</v>
+        <v>0.6216093086757724</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3352721812424022</v>
+        <v>0.9973504263891186</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.925665515002549</v>
+        <v>26.48368240716849</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03835168176055959</v>
+        <v>0.1204912963009406</v>
       </c>
       <c r="D5">
-        <v>0.1418497945449531</v>
+        <v>0.3263347275918846</v>
       </c>
       <c r="E5">
-        <v>0.2104146866927152</v>
+        <v>0.5533214088855871</v>
       </c>
       <c r="F5">
-        <v>1.690554156265343</v>
+        <v>0.7708559168736713</v>
       </c>
       <c r="G5">
-        <v>1.332806048665617</v>
+        <v>1.267530088076995</v>
       </c>
       <c r="H5">
-        <v>1.226655141088372</v>
+        <v>0.5866024578621705</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3248808200953022</v>
+        <v>0.9452808492673057</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.597962056204153</v>
+        <v>25.22280414743494</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03812777728740002</v>
+        <v>0.1194668537616934</v>
       </c>
       <c r="D6">
-        <v>0.1411723140413557</v>
+        <v>0.3239916218617793</v>
       </c>
       <c r="E6">
-        <v>0.2093473886255524</v>
+        <v>0.5487862762891993</v>
       </c>
       <c r="F6">
-        <v>1.693669140916548</v>
+        <v>0.7612885098030802</v>
       </c>
       <c r="G6">
-        <v>1.334225376550705</v>
+        <v>1.252487482455564</v>
       </c>
       <c r="H6">
-        <v>1.228210245793946</v>
+        <v>0.58107529958707</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3231587924318831</v>
+        <v>0.9367893862924177</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.543511915694978</v>
+        <v>25.01568724611553</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03968435929022007</v>
+        <v>0.1266445165933874</v>
       </c>
       <c r="D7">
-        <v>0.1458718823950989</v>
+        <v>0.3403276428647359</v>
       </c>
       <c r="E7">
-        <v>0.216761720287991</v>
+        <v>0.5806212135307547</v>
       </c>
       <c r="F7">
-        <v>1.672397211671139</v>
+        <v>0.8310077582229667</v>
       </c>
       <c r="G7">
-        <v>1.324688479918507</v>
+        <v>1.360421505921494</v>
       </c>
       <c r="H7">
-        <v>1.21761383793104</v>
+        <v>0.6211171927807584</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.335131805904183</v>
+        <v>0.996637279365018</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.921248321412122</v>
+        <v>26.46651869141522</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04661663758474788</v>
+        <v>0.1604221124422907</v>
       </c>
       <c r="D8">
-        <v>0.166539899943416</v>
+        <v>0.4147460586779772</v>
       </c>
       <c r="E8">
-        <v>0.249640360704646</v>
+        <v>0.7327387282639393</v>
       </c>
       <c r="F8">
-        <v>1.587330345972347</v>
+        <v>1.242785168540721</v>
       </c>
       <c r="G8">
-        <v>1.290561187468825</v>
+        <v>1.947662659874879</v>
       </c>
       <c r="H8">
-        <v>1.175823287887681</v>
+        <v>0.8502790004378937</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3884959844843081</v>
+        <v>1.290380421699865</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.58336038017137</v>
+        <v>33.30125385615992</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.06046976379906255</v>
+        <v>0.242152300224987</v>
       </c>
       <c r="D9">
-        <v>0.2068347990554287</v>
+        <v>0.578492652174674</v>
       </c>
       <c r="E9">
-        <v>0.3147988307733982</v>
+        <v>1.127714113974577</v>
       </c>
       <c r="F9">
-        <v>1.453664025653268</v>
+        <v>2.848451182470868</v>
       </c>
       <c r="G9">
-        <v>1.253889171928535</v>
+        <v>3.948686760820294</v>
       </c>
       <c r="H9">
-        <v>1.112485703623321</v>
+        <v>1.695878446157877</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4953531201156807</v>
+        <v>2.113641931536222</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.82979841242292</v>
+        <v>50.25632792992963</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07083702209192211</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D10">
-        <v>0.2363194942805933</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E10">
-        <v>0.3632062189319925</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F10">
-        <v>1.37711790708299</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G10">
-        <v>1.246977042139093</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H10">
-        <v>1.078020812397256</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5755349561040646</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.21175574969953</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07560173214649524</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D11">
-        <v>0.2497128687702457</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E11">
-        <v>0.3853737728053943</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F11">
-        <v>1.347325671664478</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G11">
-        <v>1.248541243293261</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H11">
-        <v>1.065125630745854</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.6124544521571806</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.29584229795364</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07741359766639277</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D12">
-        <v>0.2547823039495256</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E12">
-        <v>0.3937917456983229</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F12">
-        <v>1.336795643063525</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G12">
-        <v>1.249841577108924</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H12">
-        <v>1.060656844011703</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.6265057809404482</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.70653411182411</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07702303357626761</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D13">
-        <v>0.2536906071664475</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E13">
-        <v>0.3919776929764112</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F13">
-        <v>1.339029578257112</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G13">
-        <v>1.249529533231652</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H13">
-        <v>1.061600618520743</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.6234763168105815</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.61807501515085</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0757506401824628</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D14">
-        <v>0.2501299785605227</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E14">
-        <v>0.3860658364558844</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F14">
-        <v>1.346444128793522</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G14">
-        <v>1.248633851767181</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H14">
-        <v>1.064749594154165</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.6136090053196597</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.32962613495027</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07497226658675515</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D15">
-        <v>0.2479486991958311</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E15">
-        <v>0.3824478048408508</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F15">
-        <v>1.351084505320728</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G15">
-        <v>1.248178361914029</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H15">
-        <v>1.066732820430929</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.6075744124210587</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.15296824538353</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07052666435421884</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D16">
-        <v>0.2354438525911178</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E16">
-        <v>0.3617606792694517</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F16">
-        <v>1.379168505868222</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G16">
-        <v>1.246972182696368</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H16">
-        <v>1.078920741722357</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5731316935072357</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.14092673091295</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06781228552564755</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D17">
-        <v>0.2277678725134251</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E17">
-        <v>0.3491091020129033</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F17">
-        <v>1.397705100927595</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G17">
-        <v>1.247459840801469</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H17">
-        <v>1.087120340669173</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5521207097835372</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.5202720179671</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06625558374896912</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D18">
-        <v>0.2233510001934462</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E18">
-        <v>0.3418459041340185</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F18">
-        <v>1.408838444556579</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G18">
-        <v>1.248181603445772</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H18">
-        <v>1.09209761243639</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.5400771368043991</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.16333071957922</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06572927311189858</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D19">
-        <v>0.2218551925134875</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E19">
-        <v>0.3393889828034276</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F19">
-        <v>1.412688148094205</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G19">
-        <v>1.248500846034034</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H19">
-        <v>1.093827249583171</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.5360062989711309</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.04248107993811</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06810076204962456</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D20">
-        <v>0.228585182303334</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E20">
-        <v>0.3504544534059875</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F20">
-        <v>1.395682838666929</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G20">
-        <v>1.24736203827905</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H20">
-        <v>1.086220357933627</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5543530334618367</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.58633665968165</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07612416263155808</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D21">
-        <v>0.2511758813990639</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E21">
-        <v>0.3878016305683616</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F21">
-        <v>1.34424566367467</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G21">
-        <v>1.248877467763094</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H21">
-        <v>1.063813303293131</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.6165052978428207</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.41434509058314</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0814123523916237</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D22">
-        <v>0.2659267790059232</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E22">
-        <v>0.4123490465951392</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F22">
-        <v>1.315023674077338</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G22">
-        <v>1.254009895899969</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H22">
-        <v>1.051591033250702</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6575411144887937</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.61010622952659</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07858567979705811</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D23">
-        <v>0.2580550184335948</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E23">
-        <v>0.3992340420890912</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F23">
-        <v>1.330208140040057</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G23">
-        <v>1.250881099628941</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H23">
-        <v>1.057887859734791</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.6355991044486018</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.97177566256789</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06797032992503205</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D24">
-        <v>0.2282156885683548</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E24">
-        <v>0.3498461879505186</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F24">
-        <v>1.396595621672191</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G24">
-        <v>1.247404882257854</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H24">
-        <v>1.086626421341606</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5533436885490062</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.55646921189793</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05669122655658043</v>
+        <v>0.3559239263454543</v>
       </c>
       <c r="D25">
-        <v>0.1959568747581102</v>
+        <v>0.7619956503654919</v>
       </c>
       <c r="E25">
-        <v>0.2970869520061115</v>
+        <v>1.862222098066397</v>
       </c>
       <c r="F25">
-        <v>1.486128561463389</v>
+        <v>7.340951275116581</v>
       </c>
       <c r="G25">
-        <v>1.260410334037488</v>
+        <v>8.88260233311027</v>
       </c>
       <c r="H25">
-        <v>1.127554328933343</v>
+        <v>3.917247324622025</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4661766211201552</v>
+        <v>3.868669286941866</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.95247859135213</v>
+        <v>78.04071613804859</v>
       </c>
       <c r="N25">
         <v>0</v>
